--- a/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/SPER_PRI_PROJET-IEC61499_V1_1.xlsx
+++ b/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/SPER_PRI_PROJET-IEC61499_V1_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/Indicateurs Qualités/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D0DE7-9F8B-374F-9263-0882E2B085E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330680CD-CADF-FF41-AD3D-EE6B63681C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,6 +643,1013 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -740,14 +1747,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -804,6 +1803,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1418,39 +2425,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1490,6 +2464,13 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1507,158 +2488,30 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1771,14 +2624,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1835,6 +2680,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2449,39 +3302,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2521,6 +3341,13 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2536,160 +3363,6 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2713,32 +3386,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2799,32 +3446,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2850,24 +3471,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -2889,32 +3492,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2972,16 +3549,68 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3037,6 +3666,623 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -3478,1252 +4724,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -6556,7 +6556,7 @@
                   <c:v>0.66386554621848737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66386554621848737</c:v>
+                  <c:v>0.74380165289256195</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.66386554621848737</c:v>
@@ -6962,7 +6962,7 @@
                   <c:v>5372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5372</c:v>
+                  <c:v>6120</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5372</c:v>
@@ -7163,7 +7163,7 @@
                   <c:v>6188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6188</c:v>
+                  <c:v>6324</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6188</c:v>
@@ -7595,7 +7595,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
@@ -9637,149 +9637,149 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEFEBB5F-6102-4118-B0B2-6E88F2B43387}" name="Novembre" displayName="Novembre" ref="B1:N31" totalsRowCount="1" headerRowDxfId="212" dataDxfId="210" headerRowBorderDxfId="211" tableBorderDxfId="209">
   <autoFilter ref="B1:N30" xr:uid="{EEFEBB5F-6102-4118-B0B2-6E88F2B43387}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{86E0D464-B6E4-4A39-AB29-B042C254D4ED}" name="Tâche" totalsRowLabel="Total" dataDxfId="181" totalsRowDxfId="168"/>
-    <tableColumn id="11" xr3:uid="{DBE98C2A-59EB-4056-BFC2-B00B5E38F3F3}" name="Qui" dataDxfId="180" totalsRowDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{C65FF9F7-A988-4ED6-8A39-ADBCA5298F00}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="179" totalsRowDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{1A9AFC11-DE95-46FD-840A-3DE50AAE7D6F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="178" totalsRowDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{DB6E5B42-9E5A-465D-BF52-66522F687E8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="177" totalsRowDxfId="164">
+    <tableColumn id="1" xr3:uid="{86E0D464-B6E4-4A39-AB29-B042C254D4ED}" name="Tâche" totalsRowLabel="Total" dataDxfId="208" totalsRowDxfId="207"/>
+    <tableColumn id="11" xr3:uid="{DBE98C2A-59EB-4056-BFC2-B00B5E38F3F3}" name="Qui" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="2" xr3:uid="{C65FF9F7-A988-4ED6-8A39-ADBCA5298F00}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="3" xr3:uid="{1A9AFC11-DE95-46FD-840A-3DE50AAE7D6F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="10" xr3:uid="{DB6E5B42-9E5A-465D-BF52-66522F687E8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="200" totalsRowDxfId="199">
       <calculatedColumnFormula>Novembre[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B272441A-F283-44E4-98CE-3A60797E5767}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="176" totalsRowDxfId="163">
+    <tableColumn id="4" xr3:uid="{B272441A-F283-44E4-98CE-3A60797E5767}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="198" totalsRowDxfId="197">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E8EF3EF7-4E68-487B-B27F-0EFC05AFF678}" name="CR (h)" totalsRowFunction="sum" dataDxfId="175" totalsRowDxfId="162">
+    <tableColumn id="5" xr3:uid="{E8EF3EF7-4E68-487B-B27F-0EFC05AFF678}" name="CR (h)" totalsRowFunction="sum" dataDxfId="196" totalsRowDxfId="195">
       <calculatedColumnFormula>Novembre[[#This Row],[TPS Cumul (h)]]+Novembre[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D1DCFFE0-78E1-4114-854C-756CD01632FD}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="161">
+    <tableColumn id="6" xr3:uid="{D1DCFFE0-78E1-4114-854C-756CD01632FD}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="194" totalsRowDxfId="193">
       <calculatedColumnFormula>Novembre[[#This Row],[CR (h)]] - Novembre[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{68D63153-636D-44FD-9BB3-4FAE3C1669CD}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="173" totalsRowDxfId="160">
+    <tableColumn id="7" xr3:uid="{68D63153-636D-44FD-9BB3-4FAE3C1669CD}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="192" totalsRowDxfId="191">
       <calculatedColumnFormula>IF(Novembre[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{01301F18-5144-43D9-AE20-790FFEDD42B7}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="172" totalsRowDxfId="159">
+    <tableColumn id="9" xr3:uid="{01301F18-5144-43D9-AE20-790FFEDD42B7}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="190" totalsRowDxfId="189">
       <calculatedColumnFormula>IF(Novembre[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre[[#This Row],[Charge Initiale (h)]]*Novembre[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{22968E9A-9F58-46ED-9501-CBF574188612}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="158">
+    <tableColumn id="8" xr3:uid="{22968E9A-9F58-46ED-9501-CBF574188612}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="188" totalsRowDxfId="187">
       <calculatedColumnFormula>Novembre[[#This Row],[CR (h)]]*Novembre[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0157EB0B-7CAB-45DD-9DFA-1823238ABC31}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="157">
+    <tableColumn id="12" xr3:uid="{0157EB0B-7CAB-45DD-9DFA-1823238ABC31}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="186" totalsRowDxfId="185">
       <calculatedColumnFormula>Novembre[[#This Row],[Prix de revien unitaire(€)]]*Novembre[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{82ED09AD-B9DB-40C3-B176-96C2841CCA0C}" name="Validation" dataDxfId="169" totalsRowDxfId="156"/>
+    <tableColumn id="13" xr3:uid="{82ED09AD-B9DB-40C3-B176-96C2841CCA0C}" name="Validation" dataDxfId="184" totalsRowDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}" name="Novembre4" displayName="Novembre4" ref="B1:N31" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132" headerRowBorderDxfId="130" tableBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}" name="Novembre4" displayName="Novembre4" ref="B1:N31" totalsRowCount="1" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181" tableBorderDxfId="179">
   <autoFilter ref="B1:N30" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0BEA9DBC-9CC5-9E40-9C80-1F5698C0B8D7}" name="Tâche" totalsRowLabel="Total" dataDxfId="128" totalsRowDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{9780AF96-1A55-FD49-89CF-0C4EA8E61EA4}" name="Qui" dataDxfId="126" totalsRowDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{335BC6E3-0BCE-984D-A41E-51285FE6B047}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{CDC0537A-9906-324A-8BBC-119335655680}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="123"/>
-    <tableColumn id="10" xr3:uid="{7AFAC50D-B2FD-B044-959B-6CD052C5451D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="121">
+    <tableColumn id="1" xr3:uid="{0BEA9DBC-9CC5-9E40-9C80-1F5698C0B8D7}" name="Tâche" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{9780AF96-1A55-FD49-89CF-0C4EA8E61EA4}" name="Qui" dataDxfId="177" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{335BC6E3-0BCE-984D-A41E-51285FE6B047}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="176" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CDC0537A-9906-324A-8BBC-119335655680}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="175" totalsRowDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{7AFAC50D-B2FD-B044-959B-6CD052C5451D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="8">
       <calculatedColumnFormula>Novembre4[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{164BBD2F-B98A-F144-9B3D-96906D36133F}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="119">
+    <tableColumn id="4" xr3:uid="{164BBD2F-B98A-F144-9B3D-96906D36133F}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="173" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E978354-8A8D-9A49-B9B4-F86596EFCE20}" name="CR (h)" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="117">
+    <tableColumn id="5" xr3:uid="{5E978354-8A8D-9A49-B9B4-F86596EFCE20}" name="CR (h)" totalsRowFunction="sum" dataDxfId="172" totalsRowDxfId="6">
       <calculatedColumnFormula>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E6CCE8E7-7D0C-A844-B95B-E88C22C46F4C}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="115">
+    <tableColumn id="6" xr3:uid="{E6CCE8E7-7D0C-A844-B95B-E88C22C46F4C}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="5">
       <calculatedColumnFormula>Novembre4[[#This Row],[CR (h)]] - Novembre4[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A69DCF95-9FB0-BE44-83F6-2778CEA77527}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="113">
+    <tableColumn id="7" xr3:uid="{A69DCF95-9FB0-BE44-83F6-2778CEA77527}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Novembre4[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre4[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre4[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AF94DA91-71DE-4146-A3E8-C2AA58475207}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="111">
+    <tableColumn id="9" xr3:uid="{AF94DA91-71DE-4146-A3E8-C2AA58475207}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Novembre4[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre4[[#This Row],[Charge Initiale (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{384254D1-68E7-064F-8846-E5FC260547DC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="109">
+    <tableColumn id="8" xr3:uid="{384254D1-68E7-064F-8846-E5FC260547DC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="2">
       <calculatedColumnFormula>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B3E7A0DA-393A-1A40-B73A-5ED2C080324C}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="107">
+    <tableColumn id="12" xr3:uid="{B3E7A0DA-393A-1A40-B73A-5ED2C080324C}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="1">
       <calculatedColumnFormula>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3B42FE61-A79A-1B42-9435-B1E1C2EF680D}" name="Validation" dataDxfId="104" totalsRowDxfId="105"/>
+    <tableColumn id="13" xr3:uid="{3B42FE61-A79A-1B42-9435-B1E1C2EF680D}" name="Validation" dataDxfId="166" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}" name="Novembre5" displayName="Novembre5" ref="B1:N31" totalsRowCount="1" headerRowDxfId="81" dataDxfId="80" headerRowBorderDxfId="78" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}" name="Novembre5" displayName="Novembre5" ref="B1:N31" totalsRowCount="1" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
   <autoFilter ref="B1:N30" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C82A2965-B734-864C-A7C8-5D159DD6FACD}" name="Tâche" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{8E763832-AB8D-7944-A00F-54B7A99185D0}" name="Qui" dataDxfId="74" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{33C7B5F8-FEE3-4640-B8F0-978D64245C91}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{B993F1E8-6C38-5E4A-BC55-A4C0F126E3DC}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{99F8DCF5-4000-DC42-BD02-8D9C8D84FC8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69">
+    <tableColumn id="1" xr3:uid="{C82A2965-B734-864C-A7C8-5D159DD6FACD}" name="Tâche" totalsRowLabel="Total" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="11" xr3:uid="{8E763832-AB8D-7944-A00F-54B7A99185D0}" name="Qui" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{33C7B5F8-FEE3-4640-B8F0-978D64245C91}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{B993F1E8-6C38-5E4A-BC55-A4C0F126E3DC}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{99F8DCF5-4000-DC42-BD02-8D9C8D84FC8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="153" totalsRowDxfId="152">
       <calculatedColumnFormula>Novembre5[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{92651564-1D3D-4340-BCB2-78C454BA2458}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67">
+    <tableColumn id="4" xr3:uid="{92651564-1D3D-4340-BCB2-78C454BA2458}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40E135BC-65DC-8447-A30D-B6FB19297FA0}" name="CR (h)" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="65">
+    <tableColumn id="5" xr3:uid="{40E135BC-65DC-8447-A30D-B6FB19297FA0}" name="CR (h)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D11484C2-48BE-744A-9ACE-92B10D764EAB}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="63">
+    <tableColumn id="6" xr3:uid="{D11484C2-48BE-744A-9ACE-92B10D764EAB}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F2675EE-1760-9241-99E6-58A883367A31}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="61">
+    <tableColumn id="7" xr3:uid="{4F2675EE-1760-9241-99E6-58A883367A31}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C846DFA2-65F6-CB4E-AEEC-22FA87C181FD}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
+    <tableColumn id="9" xr3:uid="{C846DFA2-65F6-CB4E-AEEC-22FA87C181FD}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F615F4B1-B5A8-2746-8227-0CBAAE52522B}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
+    <tableColumn id="8" xr3:uid="{F615F4B1-B5A8-2746-8227-0CBAAE52522B}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5FBCBCC7-AD98-BC48-8440-359658FCB0DD}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
+    <tableColumn id="12" xr3:uid="{5FBCBCC7-AD98-BC48-8440-359658FCB0DD}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D42F1B05-0748-A14D-8682-B7BC483D041E}" name="Validation" dataDxfId="52" totalsRowDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{D42F1B05-0748-A14D-8682-B7BC483D041E}" name="Validation" dataDxfId="137" totalsRowDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}" name="Novembre6" displayName="Novembre6" ref="B1:N31" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}" name="Novembre6" displayName="Novembre6" ref="B1:N31" totalsRowCount="1" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132">
   <autoFilter ref="B1:N30" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F4C7F033-A2F3-EA47-8E19-AB45414F742D}" name="Tâche" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{4DC72074-8A80-E04A-94A7-D76D9FBFD651}" name="Qui" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C9D9F993-5CDB-7C4E-8D34-E1930E8546E3}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5B4319EC-5196-334D-8424-BA3D801B016F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{DF120DB6-1073-2C44-B926-AF98301A0CB3}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{F4C7F033-A2F3-EA47-8E19-AB45414F742D}" name="Tâche" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="11" xr3:uid="{4DC72074-8A80-E04A-94A7-D76D9FBFD651}" name="Qui" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{C9D9F993-5CDB-7C4E-8D34-E1930E8546E3}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{5B4319EC-5196-334D-8424-BA3D801B016F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{DF120DB6-1073-2C44-B926-AF98301A0CB3}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>Novembre6[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CCB8E0BA-5622-C04C-AEED-45316203FDAD}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="4" xr3:uid="{CCB8E0BA-5622-C04C-AEED-45316203FDAD}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD6EB6B5-983C-2E40-9F3A-B72750EE4EEC}" name="CR (h)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13">
+    <tableColumn id="5" xr3:uid="{BD6EB6B5-983C-2E40-9F3A-B72750EE4EEC}" name="CR (h)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B300E6E0-2946-B944-9E78-7CE701F1BB8B}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="6" xr3:uid="{B300E6E0-2946-B944-9E78-7CE701F1BB8B}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40D8ADBD-415E-A54E-8E97-46E92B655B5B}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="7" xr3:uid="{40D8ADBD-415E-A54E-8E97-46E92B655B5B}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0CC9BD66-F210-434E-98CD-05ED1716A1B5}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{0CC9BD66-F210-434E-98CD-05ED1716A1B5}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{794993DB-2332-6C44-A439-A71039BC33A7}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{794993DB-2332-6C44-A439-A71039BC33A7}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3F7AF828-7575-3649-8853-9C643EB6F906}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="12" xr3:uid="{3F7AF828-7575-3649-8853-9C643EB6F906}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{ABCD7A7A-10F1-BE4B-9DB2-BF175D33097D}" name="Validation" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{ABCD7A7A-10F1-BE4B-9DB2-BF175D33097D}" name="Validation" dataDxfId="107" totalsRowDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10233,30 +10233,30 @@
       </c>
       <c r="C7" s="26">
         <f>Décembre!M31</f>
-        <v>5372</v>
+        <v>6120</v>
       </c>
       <c r="D7" s="5">
         <v>120</v>
       </c>
       <c r="E7" s="26">
         <f>Décembre!F31</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F7" s="26">
         <f>Décembre!I31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
         <f>Décembre!H31</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>0.66386554621848737</v>
+        <v>0.74380165289256195</v>
       </c>
       <c r="I7" s="5">
         <f>Décembre!K31</f>
-        <v>6188</v>
+        <v>6324</v>
       </c>
       <c r="Q7" s="22"/>
     </row>
@@ -11983,17 +11983,17 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2">
-    <cfRule type="expression" dxfId="208" priority="78">
+    <cfRule type="expression" dxfId="105" priority="78">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:M30">
-    <cfRule type="expression" dxfId="207" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>$F3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:M2">
-    <cfRule type="expression" dxfId="206" priority="1">
+    <cfRule type="expression" dxfId="103" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13621,12 +13621,12 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C30 E2:M30">
-    <cfRule type="expression" dxfId="205" priority="48">
+    <cfRule type="expression" dxfId="102" priority="48">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="expression" dxfId="204" priority="7">
+    <cfRule type="expression" dxfId="101" priority="7">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15275,98 +15275,98 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="203" priority="8">
+    <cfRule type="expression" dxfId="100" priority="8">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="202" priority="11">
+    <cfRule type="expression" dxfId="99" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="201" priority="12">
+    <cfRule type="expression" dxfId="98" priority="12">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="200" priority="21">
+    <cfRule type="expression" dxfId="97" priority="21">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="199" priority="20">
+    <cfRule type="expression" dxfId="96" priority="20">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="198" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="197" priority="14">
+    <cfRule type="expression" dxfId="94" priority="14">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="196" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="195" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="194" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="193" priority="18">
+    <cfRule type="expression" dxfId="90" priority="18">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="19">
+    <cfRule type="expression" dxfId="89" priority="19">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="191" priority="24">
+    <cfRule type="expression" dxfId="88" priority="24">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="25">
+    <cfRule type="expression" dxfId="87" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="189" priority="22">
+    <cfRule type="expression" dxfId="86" priority="22">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="23">
+    <cfRule type="expression" dxfId="85" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="30">
+    <cfRule type="expression" dxfId="84" priority="30">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="31">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="32">
+    <cfRule type="expression" dxfId="82" priority="32">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="33">
+    <cfRule type="expression" dxfId="81" priority="33">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="183" priority="17">
+    <cfRule type="expression" dxfId="80" priority="17">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="182" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15390,7 +15390,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16282,15 +16282,15 @@
       </c>
       <c r="G18" s="4">
         <f>IF(N18="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" s="4">
         <f>Novembre4[[#This Row],[CR (h)]] - Novembre4[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>IF(Novembre4[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre4[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre4[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -16302,14 +16302,14 @@
       </c>
       <c r="L18" s="4">
         <f>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>816</v>
+        <v>476</v>
       </c>
       <c r="M18" s="4">
         <f>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</f>
         <v>476</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -16324,23 +16324,23 @@
         <v>13</v>
       </c>
       <c r="E19" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4">
         <f>Novembre4[[#This Row],[TPS Période(h)]]</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4">
         <f>IF(N19="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <f>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4">
         <f>Novembre4[[#This Row],[CR (h)]] - Novembre4[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J19" s="4" t="str">
         <f>IF(Novembre4[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre4[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre4[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -16352,11 +16352,11 @@
       </c>
       <c r="L19" s="4">
         <f>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>884</v>
+        <v>1360</v>
       </c>
       <c r="M19" s="4">
         <f>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</f>
-        <v>748</v>
+        <v>1360</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>39</v>
@@ -16557,7 +16557,7 @@
         <v>204</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -16573,14 +16573,16 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
       <c r="F24" s="4">
         <f>Novembre4[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
         <f>IF(N24="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <f>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</f>
@@ -16596,7 +16598,7 @@
       </c>
       <c r="K24" s="4">
         <f>IF(Novembre4[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre4[[#This Row],[Charge Initiale (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L24" s="4">
         <f>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -16604,10 +16606,10 @@
       </c>
       <c r="M24" s="4">
         <f>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -16913,23 +16915,23 @@
       </c>
       <c r="E31" s="2">
         <f>SUBTOTAL(109,Novembre4[TPS Période(h)])</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F31" s="2">
         <f>SUBTOTAL(109,Novembre4[TPS Cumul (h)])</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" s="2">
         <f>SUBTOTAL(109,Novembre4[Reste à passer (h) ])</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H31" s="2">
         <f>SUBTOTAL(109,Novembre4[CR (h)])</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I31" s="2">
         <f>SUBTOTAL(109,Novembre4[ Ecart de charge (h)])</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
         <f>SUBTOTAL(109,Novembre4[Prix de revien unitaire(€)])</f>
@@ -16937,15 +16939,15 @@
       </c>
       <c r="K31" s="2">
         <f>SUBTOTAL(109,Novembre4[Coût Initial (€)])</f>
-        <v>6188</v>
+        <v>6324</v>
       </c>
       <c r="L31" s="1">
         <f>SUBTOTAL(109,Novembre4[Coût Révisé (€)])</f>
-        <v>8092</v>
+        <v>8228</v>
       </c>
       <c r="M31" s="2">
         <f>SUBTOTAL(109,Novembre4[Coût Réel])</f>
-        <v>5372</v>
+        <v>6120</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -17096,98 +17098,98 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="155" priority="3">
+    <cfRule type="expression" dxfId="78" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="154" priority="5">
+    <cfRule type="expression" dxfId="77" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="153" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="152" priority="14">
+    <cfRule type="expression" dxfId="75" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="151" priority="13">
+    <cfRule type="expression" dxfId="74" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="150" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="149" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="148" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="147" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="146" priority="9">
+    <cfRule type="expression" dxfId="69" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="145" priority="11">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="12">
+    <cfRule type="expression" dxfId="67" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="143" priority="17">
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="18">
+    <cfRule type="expression" dxfId="65" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="141" priority="15">
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="16">
+    <cfRule type="expression" dxfId="63" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="19">
+    <cfRule type="expression" dxfId="62" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="20">
+    <cfRule type="expression" dxfId="61" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="22">
+    <cfRule type="expression" dxfId="59" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="135" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="134" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18916,98 +18918,98 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="102" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="101" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="100" priority="14">
+    <cfRule type="expression" dxfId="53" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="99" priority="13">
+    <cfRule type="expression" dxfId="52" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="98" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="96" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="95" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="94" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="93" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="91" priority="17">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="18">
+    <cfRule type="expression" dxfId="43" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="89" priority="15">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="19">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="20">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="21">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="83" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20762,98 +20764,98 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="47" priority="13">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="29" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="39" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/SPER_PRI_PROJET-IEC61499_V1_1.xlsx
+++ b/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/SPER_PRI_PROJET-IEC61499_V1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330680CD-CADF-FF41-AD3D-EE6B63681C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA534FE3-EA3B-4748-B231-9752DB6AA72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1880" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthèse" sheetId="6" r:id="rId1"/>
@@ -630,336 +630,6 @@
   </cellStyles>
   <dxfs count="267">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -3378,6 +3048,32 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3386,6 +3082,32 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3446,6 +3168,24 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3471,6 +3211,32 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -3492,6 +3258,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3549,6 +3341,32 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3572,6 +3390,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3627,29 +3471,16 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3705,8 +3536,35 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3727,8 +3585,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3788,6 +3670,38 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3803,6 +3717,92 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -9675,111 +9675,111 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}" name="Novembre4" displayName="Novembre4" ref="B1:N31" totalsRowCount="1" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181" tableBorderDxfId="179">
   <autoFilter ref="B1:N30" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0BEA9DBC-9CC5-9E40-9C80-1F5698C0B8D7}" name="Tâche" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{9780AF96-1A55-FD49-89CF-0C4EA8E61EA4}" name="Qui" dataDxfId="177" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{335BC6E3-0BCE-984D-A41E-51285FE6B047}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="176" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CDC0537A-9906-324A-8BBC-119335655680}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="175" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{7AFAC50D-B2FD-B044-959B-6CD052C5451D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{0BEA9DBC-9CC5-9E40-9C80-1F5698C0B8D7}" name="Tâche" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="177"/>
+    <tableColumn id="11" xr3:uid="{9780AF96-1A55-FD49-89CF-0C4EA8E61EA4}" name="Qui" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{335BC6E3-0BCE-984D-A41E-51285FE6B047}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="173"/>
+    <tableColumn id="3" xr3:uid="{CDC0537A-9906-324A-8BBC-119335655680}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="10" xr3:uid="{7AFAC50D-B2FD-B044-959B-6CD052C5451D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="169">
       <calculatedColumnFormula>Novembre4[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{164BBD2F-B98A-F144-9B3D-96906D36133F}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="173" totalsRowDxfId="7">
+    <tableColumn id="4" xr3:uid="{164BBD2F-B98A-F144-9B3D-96906D36133F}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="167">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E978354-8A8D-9A49-B9B4-F86596EFCE20}" name="CR (h)" totalsRowFunction="sum" dataDxfId="172" totalsRowDxfId="6">
+    <tableColumn id="5" xr3:uid="{5E978354-8A8D-9A49-B9B4-F86596EFCE20}" name="CR (h)" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E6CCE8E7-7D0C-A844-B95B-E88C22C46F4C}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="5">
+    <tableColumn id="6" xr3:uid="{E6CCE8E7-7D0C-A844-B95B-E88C22C46F4C}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="163">
       <calculatedColumnFormula>Novembre4[[#This Row],[CR (h)]] - Novembre4[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A69DCF95-9FB0-BE44-83F6-2778CEA77527}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="4">
+    <tableColumn id="7" xr3:uid="{A69DCF95-9FB0-BE44-83F6-2778CEA77527}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161">
       <calculatedColumnFormula>IF(Novembre4[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre4[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre4[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AF94DA91-71DE-4146-A3E8-C2AA58475207}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{AF94DA91-71DE-4146-A3E8-C2AA58475207}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159">
       <calculatedColumnFormula>IF(Novembre4[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre4[[#This Row],[Charge Initiale (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{384254D1-68E7-064F-8846-E5FC260547DC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{384254D1-68E7-064F-8846-E5FC260547DC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157">
       <calculatedColumnFormula>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B3E7A0DA-393A-1A40-B73A-5ED2C080324C}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="1">
+    <tableColumn id="12" xr3:uid="{B3E7A0DA-393A-1A40-B73A-5ED2C080324C}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="155">
       <calculatedColumnFormula>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3B42FE61-A79A-1B42-9435-B1E1C2EF680D}" name="Validation" dataDxfId="166" totalsRowDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{3B42FE61-A79A-1B42-9435-B1E1C2EF680D}" name="Validation" dataDxfId="154" totalsRowDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}" name="Novembre5" displayName="Novembre5" ref="B1:N31" totalsRowCount="1" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}" name="Novembre5" displayName="Novembre5" ref="B1:N31" totalsRowCount="1" headerRowDxfId="152" dataDxfId="150" headerRowBorderDxfId="151" tableBorderDxfId="149">
   <autoFilter ref="B1:N30" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C82A2965-B734-864C-A7C8-5D159DD6FACD}" name="Tâche" totalsRowLabel="Total" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="11" xr3:uid="{8E763832-AB8D-7944-A00F-54B7A99185D0}" name="Qui" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{33C7B5F8-FEE3-4640-B8F0-978D64245C91}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{B993F1E8-6C38-5E4A-BC55-A4C0F126E3DC}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{99F8DCF5-4000-DC42-BD02-8D9C8D84FC8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="1" xr3:uid="{C82A2965-B734-864C-A7C8-5D159DD6FACD}" name="Tâche" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{8E763832-AB8D-7944-A00F-54B7A99185D0}" name="Qui" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{33C7B5F8-FEE3-4640-B8F0-978D64245C91}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{B993F1E8-6C38-5E4A-BC55-A4C0F126E3DC}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="10" xr3:uid="{99F8DCF5-4000-DC42-BD02-8D9C8D84FC8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>Novembre5[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{92651564-1D3D-4340-BCB2-78C454BA2458}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="4" xr3:uid="{92651564-1D3D-4340-BCB2-78C454BA2458}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40E135BC-65DC-8447-A30D-B6FB19297FA0}" name="CR (h)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="5" xr3:uid="{40E135BC-65DC-8447-A30D-B6FB19297FA0}" name="CR (h)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D11484C2-48BE-744A-9ACE-92B10D764EAB}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="6" xr3:uid="{D11484C2-48BE-744A-9ACE-92B10D764EAB}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
       <calculatedColumnFormula>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F2675EE-1760-9241-99E6-58A883367A31}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="7" xr3:uid="{4F2675EE-1760-9241-99E6-58A883367A31}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C846DFA2-65F6-CB4E-AEEC-22FA87C181FD}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="9" xr3:uid="{C846DFA2-65F6-CB4E-AEEC-22FA87C181FD}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129">
       <calculatedColumnFormula>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F615F4B1-B5A8-2746-8227-0CBAAE52522B}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="8" xr3:uid="{F615F4B1-B5A8-2746-8227-0CBAAE52522B}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127">
       <calculatedColumnFormula>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5FBCBCC7-AD98-BC48-8440-359658FCB0DD}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="12" xr3:uid="{5FBCBCC7-AD98-BC48-8440-359658FCB0DD}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D42F1B05-0748-A14D-8682-B7BC483D041E}" name="Validation" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="13" xr3:uid="{D42F1B05-0748-A14D-8682-B7BC483D041E}" name="Validation" dataDxfId="124" totalsRowDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}" name="Novembre6" displayName="Novembre6" ref="B1:N31" totalsRowCount="1" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}" name="Novembre6" displayName="Novembre6" ref="B1:N31" totalsRowCount="1" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119">
   <autoFilter ref="B1:N30" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F4C7F033-A2F3-EA47-8E19-AB45414F742D}" name="Tâche" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="11" xr3:uid="{4DC72074-8A80-E04A-94A7-D76D9FBFD651}" name="Qui" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{C9D9F993-5CDB-7C4E-8D34-E1930E8546E3}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{5B4319EC-5196-334D-8424-BA3D801B016F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{DF120DB6-1073-2C44-B926-AF98301A0CB3}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="1" xr3:uid="{F4C7F033-A2F3-EA47-8E19-AB45414F742D}" name="Tâche" totalsRowLabel="Total" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{4DC72074-8A80-E04A-94A7-D76D9FBFD651}" name="Qui" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{C9D9F993-5CDB-7C4E-8D34-E1930E8546E3}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{5B4319EC-5196-334D-8424-BA3D801B016F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{DF120DB6-1073-2C44-B926-AF98301A0CB3}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>Novembre6[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CCB8E0BA-5622-C04C-AEED-45316203FDAD}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="4" xr3:uid="{CCB8E0BA-5622-C04C-AEED-45316203FDAD}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD6EB6B5-983C-2E40-9F3A-B72750EE4EEC}" name="CR (h)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="5" xr3:uid="{BD6EB6B5-983C-2E40-9F3A-B72750EE4EEC}" name="CR (h)" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B300E6E0-2946-B944-9E78-7CE701F1BB8B}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="6" xr3:uid="{B300E6E0-2946-B944-9E78-7CE701F1BB8B}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103">
       <calculatedColumnFormula>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40D8ADBD-415E-A54E-8E97-46E92B655B5B}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="7" xr3:uid="{40D8ADBD-415E-A54E-8E97-46E92B655B5B}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0CC9BD66-F210-434E-98CD-05ED1716A1B5}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="9" xr3:uid="{0CC9BD66-F210-434E-98CD-05ED1716A1B5}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{794993DB-2332-6C44-A439-A71039BC33A7}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="8" xr3:uid="{794993DB-2332-6C44-A439-A71039BC33A7}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3F7AF828-7575-3649-8853-9C643EB6F906}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="12" xr3:uid="{3F7AF828-7575-3649-8853-9C643EB6F906}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{ABCD7A7A-10F1-BE4B-9DB2-BF175D33097D}" name="Validation" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="13" xr3:uid="{ABCD7A7A-10F1-BE4B-9DB2-BF175D33097D}" name="Validation" dataDxfId="94" totalsRowDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11983,17 +11983,17 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2">
-    <cfRule type="expression" dxfId="105" priority="78">
+    <cfRule type="expression" dxfId="92" priority="78">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:M30">
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="91" priority="6">
       <formula>$F3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:M2">
-    <cfRule type="expression" dxfId="103" priority="1">
+    <cfRule type="expression" dxfId="90" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13621,12 +13621,12 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C30 E2:M30">
-    <cfRule type="expression" dxfId="102" priority="48">
+    <cfRule type="expression" dxfId="89" priority="48">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="expression" dxfId="101" priority="7">
+    <cfRule type="expression" dxfId="88" priority="7">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15275,98 +15275,98 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="100" priority="8">
+    <cfRule type="expression" dxfId="87" priority="8">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="99" priority="11">
+    <cfRule type="expression" dxfId="86" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="98" priority="12">
+    <cfRule type="expression" dxfId="85" priority="12">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="97" priority="21">
+    <cfRule type="expression" dxfId="84" priority="21">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="96" priority="20">
+    <cfRule type="expression" dxfId="83" priority="20">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="82" priority="15">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="94" priority="14">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="93" priority="9">
+    <cfRule type="expression" dxfId="80" priority="9">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="92" priority="4">
+    <cfRule type="expression" dxfId="79" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="91" priority="16">
+    <cfRule type="expression" dxfId="78" priority="16">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="90" priority="18">
+    <cfRule type="expression" dxfId="77" priority="18">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="19">
+    <cfRule type="expression" dxfId="76" priority="19">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="88" priority="24">
+    <cfRule type="expression" dxfId="75" priority="24">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="25">
+    <cfRule type="expression" dxfId="74" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="86" priority="22">
+    <cfRule type="expression" dxfId="73" priority="22">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23">
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="30">
+    <cfRule type="expression" dxfId="71" priority="30">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="31">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="32">
+    <cfRule type="expression" dxfId="69" priority="32">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="33">
+    <cfRule type="expression" dxfId="68" priority="33">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="80" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17098,98 +17098,98 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="78" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="77" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="76" priority="6">
+    <cfRule type="expression" dxfId="63" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="75" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="74" priority="13">
+    <cfRule type="expression" dxfId="61" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="73" priority="8">
+    <cfRule type="expression" dxfId="60" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="69" priority="9">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="68" priority="11">
+    <cfRule type="expression" dxfId="55" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="54" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="53" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="18">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="64" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="16">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="19">
+    <cfRule type="expression" dxfId="49" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="20">
+    <cfRule type="expression" dxfId="48" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="47" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="22">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="58" priority="10">
+    <cfRule type="expression" dxfId="45" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18918,98 +18918,98 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="53" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="52" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="46" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="44" priority="17">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="42" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20764,98 +20764,98 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20884,17 +20884,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF9263497045A640A8CB558901A6A6C8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="74a64c617853225d9915ce5c2407eb7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3823e97-3c8f-42af-9aa3-4a85adc1b986" xmlns:ns3="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2245405c225123f82bf2fff4f792a1eb" ns2:_="" ns3:_="">
     <xsd:import namespace="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
@@ -21089,6 +21078,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
   <ds:schemaRefs>
@@ -21098,23 +21098,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B8A2DB-F0C8-46F4-AC39-BA8B306E6417}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21133,6 +21116,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{16150599-ebb0-4fcf-94a5-6010823c7bd5}" enabled="0" method="" siteId="{16150599-ebb0-4fcf-94a5-6010823c7bd5}" removed="1"/>

--- a/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/SPER_PRI_PROJET-IEC61499_V1_1.xlsx
+++ b/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/SPER_PRI_PROJET-IEC61499_V1_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtoursfr.sharepoint.com/sites/Projet-UniversalAutomation-IEC61499/Documents partages/General/02 - Gestion de projet/SPER - INDICATEURS - RISQUES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA534FE3-EA3B-4748-B231-9752DB6AA72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{E13D0DE7-9F8B-374F-9263-0882E2B085E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D4A2A5F-4A5A-F04E-AF28-BAFC813415F1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1880" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthèse" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="73">
   <si>
     <t>Mois</t>
   </si>
@@ -630,6 +630,336 @@
   </cellStyles>
   <dxfs count="267">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -3048,32 +3378,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3082,32 +3386,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3168,24 +3446,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3211,32 +3471,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -3258,32 +3492,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3341,16 +3549,68 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3406,97 +3666,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3520,97 +3689,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3667,32 +3745,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3717,32 +3769,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3777,32 +3803,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -6556,13 +6556,13 @@
                   <c:v>0.66386554621848737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74380165289256195</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66386554621848737</c:v>
+                  <c:v>0.98373983739837401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66386554621848737</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,13 +6962,13 @@
                   <c:v>5372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6120</c:v>
+                  <c:v>5984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5372</c:v>
+                  <c:v>8228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5372</c:v>
+                  <c:v>8364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7163,13 +7163,13 @@
                   <c:v>6188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6324</c:v>
+                  <c:v>6188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6188</c:v>
+                  <c:v>8024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6188</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,13 +7595,13 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9675,111 +9675,111 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}" name="Novembre4" displayName="Novembre4" ref="B1:N31" totalsRowCount="1" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181" tableBorderDxfId="179">
   <autoFilter ref="B1:N30" xr:uid="{2E5B1876-2265-BD45-A1E2-F3FC886EA92A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0BEA9DBC-9CC5-9E40-9C80-1F5698C0B8D7}" name="Tâche" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="11" xr3:uid="{9780AF96-1A55-FD49-89CF-0C4EA8E61EA4}" name="Qui" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{335BC6E3-0BCE-984D-A41E-51285FE6B047}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="3" xr3:uid="{CDC0537A-9906-324A-8BBC-119335655680}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="172" totalsRowDxfId="171"/>
-    <tableColumn id="10" xr3:uid="{7AFAC50D-B2FD-B044-959B-6CD052C5451D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="169">
+    <tableColumn id="1" xr3:uid="{0BEA9DBC-9CC5-9E40-9C80-1F5698C0B8D7}" name="Tâche" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{9780AF96-1A55-FD49-89CF-0C4EA8E61EA4}" name="Qui" dataDxfId="177" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{335BC6E3-0BCE-984D-A41E-51285FE6B047}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="176" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CDC0537A-9906-324A-8BBC-119335655680}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="175" totalsRowDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{7AFAC50D-B2FD-B044-959B-6CD052C5451D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="8">
       <calculatedColumnFormula>Novembre4[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{164BBD2F-B98A-F144-9B3D-96906D36133F}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="167">
+    <tableColumn id="4" xr3:uid="{164BBD2F-B98A-F144-9B3D-96906D36133F}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="173" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E978354-8A8D-9A49-B9B4-F86596EFCE20}" name="CR (h)" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="165">
+    <tableColumn id="5" xr3:uid="{5E978354-8A8D-9A49-B9B4-F86596EFCE20}" name="CR (h)" totalsRowFunction="sum" dataDxfId="172" totalsRowDxfId="6">
       <calculatedColumnFormula>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E6CCE8E7-7D0C-A844-B95B-E88C22C46F4C}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="6" xr3:uid="{E6CCE8E7-7D0C-A844-B95B-E88C22C46F4C}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="5">
       <calculatedColumnFormula>Novembre4[[#This Row],[CR (h)]] - Novembre4[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A69DCF95-9FB0-BE44-83F6-2778CEA77527}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="7" xr3:uid="{A69DCF95-9FB0-BE44-83F6-2778CEA77527}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Novembre4[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre4[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre4[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AF94DA91-71DE-4146-A3E8-C2AA58475207}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="9" xr3:uid="{AF94DA91-71DE-4146-A3E8-C2AA58475207}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Novembre4[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre4[[#This Row],[Charge Initiale (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{384254D1-68E7-064F-8846-E5FC260547DC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="8" xr3:uid="{384254D1-68E7-064F-8846-E5FC260547DC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="2">
       <calculatedColumnFormula>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B3E7A0DA-393A-1A40-B73A-5ED2C080324C}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="12" xr3:uid="{B3E7A0DA-393A-1A40-B73A-5ED2C080324C}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="1">
       <calculatedColumnFormula>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3B42FE61-A79A-1B42-9435-B1E1C2EF680D}" name="Validation" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="13" xr3:uid="{3B42FE61-A79A-1B42-9435-B1E1C2EF680D}" name="Validation" dataDxfId="166" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}" name="Novembre5" displayName="Novembre5" ref="B1:N31" totalsRowCount="1" headerRowDxfId="152" dataDxfId="150" headerRowBorderDxfId="151" tableBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}" name="Novembre5" displayName="Novembre5" ref="B1:N31" totalsRowCount="1" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
   <autoFilter ref="B1:N30" xr:uid="{ABE6262C-FB6F-0A48-8368-139703B54F9D}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C82A2965-B734-864C-A7C8-5D159DD6FACD}" name="Tâche" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="11" xr3:uid="{8E763832-AB8D-7944-A00F-54B7A99185D0}" name="Qui" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{33C7B5F8-FEE3-4640-B8F0-978D64245C91}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="3" xr3:uid="{B993F1E8-6C38-5E4A-BC55-A4C0F126E3DC}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="10" xr3:uid="{99F8DCF5-4000-DC42-BD02-8D9C8D84FC8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="1" xr3:uid="{C82A2965-B734-864C-A7C8-5D159DD6FACD}" name="Tâche" totalsRowLabel="Total" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="11" xr3:uid="{8E763832-AB8D-7944-A00F-54B7A99185D0}" name="Qui" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{33C7B5F8-FEE3-4640-B8F0-978D64245C91}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{B993F1E8-6C38-5E4A-BC55-A4C0F126E3DC}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{99F8DCF5-4000-DC42-BD02-8D9C8D84FC8D}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="153" totalsRowDxfId="152">
       <calculatedColumnFormula>Novembre5[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{92651564-1D3D-4340-BCB2-78C454BA2458}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="4" xr3:uid="{92651564-1D3D-4340-BCB2-78C454BA2458}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40E135BC-65DC-8447-A30D-B6FB19297FA0}" name="CR (h)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="5" xr3:uid="{40E135BC-65DC-8447-A30D-B6FB19297FA0}" name="CR (h)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D11484C2-48BE-744A-9ACE-92B10D764EAB}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="6" xr3:uid="{D11484C2-48BE-744A-9ACE-92B10D764EAB}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F2675EE-1760-9241-99E6-58A883367A31}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="7" xr3:uid="{4F2675EE-1760-9241-99E6-58A883367A31}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C846DFA2-65F6-CB4E-AEEC-22FA87C181FD}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="9" xr3:uid="{C846DFA2-65F6-CB4E-AEEC-22FA87C181FD}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F615F4B1-B5A8-2746-8227-0CBAAE52522B}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127">
+    <tableColumn id="8" xr3:uid="{F615F4B1-B5A8-2746-8227-0CBAAE52522B}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5FBCBCC7-AD98-BC48-8440-359658FCB0DD}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="12" xr3:uid="{5FBCBCC7-AD98-BC48-8440-359658FCB0DD}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D42F1B05-0748-A14D-8682-B7BC483D041E}" name="Validation" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="13" xr3:uid="{D42F1B05-0748-A14D-8682-B7BC483D041E}" name="Validation" dataDxfId="137" totalsRowDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}" name="Novembre6" displayName="Novembre6" ref="B1:N31" totalsRowCount="1" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}" name="Novembre6" displayName="Novembre6" ref="B1:N31" totalsRowCount="1" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132">
   <autoFilter ref="B1:N30" xr:uid="{CED7DF76-F011-A34B-BE70-E4BFC169CAA0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F4C7F033-A2F3-EA47-8E19-AB45414F742D}" name="Tâche" totalsRowLabel="Total" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="11" xr3:uid="{4DC72074-8A80-E04A-94A7-D76D9FBFD651}" name="Qui" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{C9D9F993-5CDB-7C4E-8D34-E1930E8546E3}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{5B4319EC-5196-334D-8424-BA3D801B016F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="10" xr3:uid="{DF120DB6-1073-2C44-B926-AF98301A0CB3}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="1" xr3:uid="{F4C7F033-A2F3-EA47-8E19-AB45414F742D}" name="Tâche" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="11" xr3:uid="{4DC72074-8A80-E04A-94A7-D76D9FBFD651}" name="Qui" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{C9D9F993-5CDB-7C4E-8D34-E1930E8546E3}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{5B4319EC-5196-334D-8424-BA3D801B016F}" name="TPS Période(h)" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{DF120DB6-1073-2C44-B926-AF98301A0CB3}" name="TPS Cumul (h)" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>Novembre6[[#This Row],[TPS Période(h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CCB8E0BA-5622-C04C-AEED-45316203FDAD}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="4" xr3:uid="{CCB8E0BA-5622-C04C-AEED-45316203FDAD}" name="Reste à passer (h) " totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>IF(N2="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD6EB6B5-983C-2E40-9F3A-B72750EE4EEC}" name="CR (h)" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="5" xr3:uid="{BD6EB6B5-983C-2E40-9F3A-B72750EE4EEC}" name="CR (h)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B300E6E0-2946-B944-9E78-7CE701F1BB8B}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="6" xr3:uid="{B300E6E0-2946-B944-9E78-7CE701F1BB8B}" name=" Ecart de charge (h)" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40D8ADBD-415E-A54E-8E97-46E92B655B5B}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="7" xr3:uid="{40D8ADBD-415E-A54E-8E97-46E92B655B5B}" name="Prix de revien unitaire(€)" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0CC9BD66-F210-434E-98CD-05ED1716A1B5}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="9" xr3:uid="{0CC9BD66-F210-434E-98CD-05ED1716A1B5}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{794993DB-2332-6C44-A439-A71039BC33A7}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="8" xr3:uid="{794993DB-2332-6C44-A439-A71039BC33A7}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3F7AF828-7575-3649-8853-9C643EB6F906}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="12" xr3:uid="{3F7AF828-7575-3649-8853-9C643EB6F906}" name="Coût Réel" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{ABCD7A7A-10F1-BE4B-9DB2-BF175D33097D}" name="Validation" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{ABCD7A7A-10F1-BE4B-9DB2-BF175D33097D}" name="Validation" dataDxfId="107" totalsRowDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10087,8 +10087,8 @@
   </sheetPr>
   <dimension ref="B3:Q9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10233,30 +10233,30 @@
       </c>
       <c r="C7" s="26">
         <f>Décembre!M31</f>
-        <v>6120</v>
+        <v>5984</v>
       </c>
       <c r="D7" s="5">
         <v>120</v>
       </c>
       <c r="E7" s="26">
         <f>Décembre!F31</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="26">
         <f>Décembre!I31</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5">
         <f>Décembre!H31</f>
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>0.74380165289256195</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="I7" s="5">
         <f>Décembre!K31</f>
-        <v>6324</v>
+        <v>6188</v>
       </c>
       <c r="Q7" s="22"/>
     </row>
@@ -10266,30 +10266,30 @@
       </c>
       <c r="C8" s="26">
         <f>Janvier!M31</f>
-        <v>5372</v>
+        <v>8228</v>
       </c>
       <c r="D8" s="5">
         <v>120</v>
       </c>
       <c r="E8" s="26">
         <f>Janvier!F31</f>
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F8" s="26">
         <f>Janvier!I31</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
         <f>Janvier!H31</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>0.66386554621848737</v>
+        <v>0.98373983739837401</v>
       </c>
       <c r="I8" s="5">
         <f>Janvier!K31</f>
-        <v>6188</v>
+        <v>8024</v>
       </c>
       <c r="Q8" s="22"/>
     </row>
@@ -10299,30 +10299,30 @@
       </c>
       <c r="C9" s="26">
         <f>Février!M31</f>
-        <v>5372</v>
+        <v>8364</v>
       </c>
       <c r="D9" s="5">
         <v>120</v>
       </c>
       <c r="E9" s="26">
         <f>Février!F31</f>
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F9" s="26">
         <f>Février!I31</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
         <f>Février!H31</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>0.66386554621848737</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5">
         <f>Février!K31</f>
-        <v>6188</v>
+        <v>8160</v>
       </c>
       <c r="Q9" s="22"/>
     </row>
@@ -11983,17 +11983,17 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E2">
-    <cfRule type="expression" dxfId="92" priority="78">
+    <cfRule type="expression" dxfId="105" priority="78">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:M30">
-    <cfRule type="expression" dxfId="91" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>$F3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:M2">
-    <cfRule type="expression" dxfId="90" priority="1">
+    <cfRule type="expression" dxfId="103" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13621,12 +13621,12 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C30 E2:M30">
-    <cfRule type="expression" dxfId="89" priority="48">
+    <cfRule type="expression" dxfId="102" priority="48">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="101" priority="7">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15275,98 +15275,98 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="100" priority="8">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="99" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="85" priority="12">
+    <cfRule type="expression" dxfId="98" priority="12">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="84" priority="21">
+    <cfRule type="expression" dxfId="97" priority="21">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="83" priority="20">
+    <cfRule type="expression" dxfId="96" priority="20">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="82" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="81" priority="14">
+    <cfRule type="expression" dxfId="94" priority="14">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="80" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="79" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="78" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="77" priority="18">
+    <cfRule type="expression" dxfId="90" priority="18">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="19">
+    <cfRule type="expression" dxfId="89" priority="19">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="75" priority="24">
+    <cfRule type="expression" dxfId="88" priority="24">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="25">
+    <cfRule type="expression" dxfId="87" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="73" priority="22">
+    <cfRule type="expression" dxfId="86" priority="22">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="23">
+    <cfRule type="expression" dxfId="85" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="30">
+    <cfRule type="expression" dxfId="84" priority="30">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="31">
+    <cfRule type="expression" dxfId="83" priority="31">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="32">
+    <cfRule type="expression" dxfId="82" priority="32">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="33">
+    <cfRule type="expression" dxfId="81" priority="33">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="80" priority="17">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15389,8 +15389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B995E3C-F697-4030-BD76-DE5CA995FB1A}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16282,15 +16282,15 @@
       </c>
       <c r="G18" s="4">
         <f>IF(N18="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="4">
         <f>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I18" s="4">
         <f>Novembre4[[#This Row],[CR (h)]] - Novembre4[[#This Row],[Charge Initiale (h)]]</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>IF(Novembre4[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre4[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre4[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre4[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -16302,14 +16302,14 @@
       </c>
       <c r="L18" s="4">
         <f>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>476</v>
+        <v>816</v>
       </c>
       <c r="M18" s="4">
         <f>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</f>
         <v>476</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -16557,7 +16557,7 @@
         <v>204</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -16573,16 +16573,14 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4">
         <f>Novembre4[[#This Row],[TPS Période(h)]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <f>IF(N24="Non",MAX(Novembre4[[#This Row],[Charge Initiale (h)]]-Novembre4[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4">
         <f>Novembre4[[#This Row],[TPS Cumul (h)]]+Novembre4[[#This Row],[Reste à passer (h) ]]</f>
@@ -16598,7 +16596,7 @@
       </c>
       <c r="K24" s="4">
         <f>IF(Novembre4[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre4[[#This Row],[Charge Initiale (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
         <f>Novembre4[[#This Row],[CR (h)]]*Novembre4[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -16606,10 +16604,10 @@
       </c>
       <c r="M24" s="4">
         <f>Novembre4[[#This Row],[Prix de revien unitaire(€)]]*Novembre4[[#This Row],[TPS Cumul (h)]]</f>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -16915,23 +16913,23 @@
       </c>
       <c r="E31" s="2">
         <f>SUBTOTAL(109,Novembre4[TPS Période(h)])</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2">
         <f>SUBTOTAL(109,Novembre4[TPS Cumul (h)])</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G31" s="2">
         <f>SUBTOTAL(109,Novembre4[Reste à passer (h) ])</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H31" s="2">
         <f>SUBTOTAL(109,Novembre4[CR (h)])</f>
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I31" s="2">
         <f>SUBTOTAL(109,Novembre4[ Ecart de charge (h)])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J31" s="2">
         <f>SUBTOTAL(109,Novembre4[Prix de revien unitaire(€)])</f>
@@ -16939,15 +16937,15 @@
       </c>
       <c r="K31" s="2">
         <f>SUBTOTAL(109,Novembre4[Coût Initial (€)])</f>
-        <v>6324</v>
+        <v>6188</v>
       </c>
       <c r="L31" s="1">
         <f>SUBTOTAL(109,Novembre4[Coût Révisé (€)])</f>
-        <v>8228</v>
+        <v>8568</v>
       </c>
       <c r="M31" s="2">
         <f>SUBTOTAL(109,Novembre4[Coût Réel])</f>
-        <v>6120</v>
+        <v>5984</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -17098,98 +17096,98 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="78" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="77" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="62" priority="14">
+    <cfRule type="expression" dxfId="75" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="61" priority="13">
+    <cfRule type="expression" dxfId="74" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="60" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="59" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="69" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="12">
+    <cfRule type="expression" dxfId="67" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="53" priority="17">
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="65" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="63" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="19">
+    <cfRule type="expression" dxfId="62" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="20">
+    <cfRule type="expression" dxfId="61" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="22">
+    <cfRule type="expression" dxfId="59" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17212,8 +17210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC10DD6-A7C5-4BE0-BF97-82C61AF38122}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N31"/>
+    <sheetView zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18105,15 +18103,15 @@
       </c>
       <c r="G18" s="4">
         <f>IF(N18="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" s="4">
         <f>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -18125,14 +18123,14 @@
       </c>
       <c r="L18" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>816</v>
+        <v>476</v>
       </c>
       <c r="M18" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
         <v>476</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -18147,23 +18145,23 @@
         <v>13</v>
       </c>
       <c r="E19" s="4">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4">
         <f>IF(N19="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I19" s="4">
         <f>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J19" s="4" t="str">
         <f>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -18175,14 +18173,14 @@
       </c>
       <c r="L19" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>884</v>
+        <v>2312</v>
       </c>
       <c r="M19" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>748</v>
+        <v>2312</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -18196,14 +18194,16 @@
       <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
       <c r="F20" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
         <f>IF(N20="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
@@ -18219,7 +18219,7 @@
       </c>
       <c r="K20" s="4">
         <f>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="L20" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -18227,10 +18227,10 @@
       </c>
       <c r="M20" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -18244,14 +18244,16 @@
       <c r="D21" s="4">
         <v>7</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
       <c r="F21" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4">
         <f>IF(N21="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
@@ -18267,7 +18269,7 @@
       </c>
       <c r="K21" s="4">
         <f>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="L21" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -18275,10 +18277,10 @@
       </c>
       <c r="M21" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -18303,15 +18305,15 @@
       </c>
       <c r="G22" s="4">
         <f>IF(N22="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" s="4">
         <f>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -18323,14 +18325,14 @@
       </c>
       <c r="L22" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>476</v>
+        <v>204</v>
       </c>
       <c r="M22" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
         <v>204</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -18380,7 +18382,7 @@
         <v>204</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -18396,14 +18398,16 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
       <c r="F24" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
         <f>IF(N24="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
@@ -18419,7 +18423,7 @@
       </c>
       <c r="K24" s="4">
         <f>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L24" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -18427,10 +18431,10 @@
       </c>
       <c r="M24" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -18444,14 +18448,16 @@
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
       <c r="F25" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4">
         <f>IF(N25="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
@@ -18467,7 +18473,7 @@
       </c>
       <c r="K25" s="4">
         <f>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L25" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -18475,10 +18481,10 @@
       </c>
       <c r="M25" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -18494,22 +18500,24 @@
       <c r="D26" s="4">
         <v>10</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
       <c r="F26" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4">
         <f>IF(N26="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H26" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4">
         <f>Novembre5[[#This Row],[CR (h)]] - Novembre5[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="J26" s="4" t="str">
         <f>IF(Novembre5[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre5[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre5[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre5[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -18517,18 +18525,18 @@
       </c>
       <c r="K26" s="4">
         <f>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="L26" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>680</v>
+        <v>136</v>
       </c>
       <c r="M26" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -18592,14 +18600,16 @@
       <c r="D28" s="4">
         <v>3</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
       <c r="F28" s="4">
         <f>Novembre5[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4">
         <f>IF(N28="Non",MAX(Novembre5[[#This Row],[Charge Initiale (h)]]-Novembre5[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
         <f>Novembre5[[#This Row],[TPS Cumul (h)]]+Novembre5[[#This Row],[Reste à passer (h) ]]</f>
@@ -18615,7 +18625,7 @@
       </c>
       <c r="K28" s="4">
         <f>IF(Novembre5[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre5[[#This Row],[Charge Initiale (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="L28" s="4">
         <f>Novembre5[[#This Row],[CR (h)]]*Novembre5[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -18623,10 +18633,10 @@
       </c>
       <c r="M28" s="4">
         <f>Novembre5[[#This Row],[Prix de revien unitaire(€)]]*Novembre5[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -18736,23 +18746,23 @@
       </c>
       <c r="E31" s="2">
         <f>SUBTOTAL(109,Novembre5[TPS Période(h)])</f>
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2">
         <f>SUBTOTAL(109,Novembre5[TPS Cumul (h)])</f>
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2">
         <f>SUBTOTAL(109,Novembre5[Reste à passer (h) ])</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2">
         <f>SUBTOTAL(109,Novembre5[CR (h)])</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I31" s="2">
         <f>SUBTOTAL(109,Novembre5[ Ecart de charge (h)])</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J31" s="2">
         <f>SUBTOTAL(109,Novembre5[Prix de revien unitaire(€)])</f>
@@ -18760,15 +18770,15 @@
       </c>
       <c r="K31" s="2">
         <f>SUBTOTAL(109,Novembre5[Coût Initial (€)])</f>
-        <v>6188</v>
+        <v>8024</v>
       </c>
       <c r="L31" s="1">
         <f>SUBTOTAL(109,Novembre5[Coût Révisé (€)])</f>
-        <v>8092</v>
+        <v>8364</v>
       </c>
       <c r="M31" s="2">
         <f>SUBTOTAL(109,Novembre5[Coût Réel])</f>
-        <v>5372</v>
+        <v>8228</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -18918,98 +18928,98 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="53" priority="14">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="52" priority="13">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="43" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19030,10 +19040,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6900C2FD-3383-4379-AB40-DA38318C7941}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19928,15 +19938,15 @@
       </c>
       <c r="G18" s="4">
         <f>IF(N18="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" s="4">
         <f>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -19948,14 +19958,14 @@
       </c>
       <c r="L18" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>816</v>
+        <v>476</v>
       </c>
       <c r="M18" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
         <v>476</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -19970,23 +19980,23 @@
         <v>13</v>
       </c>
       <c r="E19" s="4">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4">
         <f>IF(N19="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I19" s="4">
         <f>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J19" s="4" t="str">
         <f>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -19998,14 +20008,14 @@
       </c>
       <c r="L19" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>884</v>
+        <v>2312</v>
       </c>
       <c r="M19" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>748</v>
+        <v>2312</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -20019,14 +20029,16 @@
       <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
       <c r="F20" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
         <f>IF(N20="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
@@ -20042,7 +20054,7 @@
       </c>
       <c r="K20" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="L20" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -20050,10 +20062,10 @@
       </c>
       <c r="M20" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -20067,14 +20079,16 @@
       <c r="D21" s="4">
         <v>7</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
       <c r="F21" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4">
         <f>IF(N21="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
@@ -20090,7 +20104,7 @@
       </c>
       <c r="K21" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="L21" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -20098,10 +20112,10 @@
       </c>
       <c r="M21" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -20126,15 +20140,15 @@
       </c>
       <c r="G22" s="4">
         <f>IF(N22="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" s="4">
         <f>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -20146,14 +20160,14 @@
       </c>
       <c r="L22" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>476</v>
+        <v>204</v>
       </c>
       <c r="M22" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
         <v>204</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -20203,7 +20217,7 @@
         <v>204</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -20219,14 +20233,16 @@
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
       <c r="F24" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
         <f>IF(N24="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
@@ -20242,7 +20258,7 @@
       </c>
       <c r="K24" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L24" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -20250,10 +20266,10 @@
       </c>
       <c r="M24" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -20267,14 +20283,16 @@
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
       <c r="F25" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4">
         <f>IF(N25="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
@@ -20290,7 +20308,7 @@
       </c>
       <c r="K25" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L25" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -20298,10 +20316,10 @@
       </c>
       <c r="M25" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -20317,22 +20335,24 @@
       <c r="D26" s="4">
         <v>10</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
       <c r="F26" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4">
         <f>IF(N26="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H26" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4">
         <f>Novembre6[[#This Row],[CR (h)]] - Novembre6[[#This Row],[Charge Initiale (h)]]</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="J26" s="4" t="str">
         <f>IF(Novembre6[[#This Row],[Qui]]="Chef de projet","68",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre6[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre6[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre6[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -20340,18 +20360,18 @@
       </c>
       <c r="K26" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="L26" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
-        <v>680</v>
+        <v>136</v>
       </c>
       <c r="M26" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -20365,14 +20385,16 @@
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
       <c r="F27" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4">
         <f>IF(N27="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
@@ -20388,7 +20410,7 @@
       </c>
       <c r="K27" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L27" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -20396,10 +20418,10 @@
       </c>
       <c r="M27" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -20415,14 +20437,16 @@
       <c r="D28" s="4">
         <v>3</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
       <c r="F28" s="4">
         <f>Novembre6[[#This Row],[TPS Période(h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4">
         <f>IF(N28="Non",MAX(Novembre6[[#This Row],[Charge Initiale (h)]]-Novembre6[[#This Row],[TPS Cumul (h)]],0),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
         <f>Novembre6[[#This Row],[TPS Cumul (h)]]+Novembre6[[#This Row],[Reste à passer (h) ]]</f>
@@ -20438,7 +20462,7 @@
       </c>
       <c r="K28" s="4">
         <f>IF(Novembre6[[#This Row],[TPS Cumul (h)]]&gt;0,Novembre6[[#This Row],[Charge Initiale (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]],0)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="L28" s="4">
         <f>Novembre6[[#This Row],[CR (h)]]*Novembre6[[#This Row],[Prix de revien unitaire(€)]]</f>
@@ -20446,10 +20470,10 @@
       </c>
       <c r="M28" s="4">
         <f>Novembre6[[#This Row],[Prix de revien unitaire(€)]]*Novembre6[[#This Row],[TPS Cumul (h)]]</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -20497,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -20545,7 +20569,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -20559,23 +20583,23 @@
       </c>
       <c r="E31" s="2">
         <f>SUBTOTAL(109,Novembre6[TPS Période(h)])</f>
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2">
         <f>SUBTOTAL(109,Novembre6[TPS Cumul (h)])</f>
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2">
         <f>SUBTOTAL(109,Novembre6[Reste à passer (h) ])</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
         <f>SUBTOTAL(109,Novembre6[CR (h)])</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I31" s="2">
         <f>SUBTOTAL(109,Novembre6[ Ecart de charge (h)])</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J31" s="2">
         <f>SUBTOTAL(109,Novembre6[Prix de revien unitaire(€)])</f>
@@ -20583,15 +20607,15 @@
       </c>
       <c r="K31" s="2">
         <f>SUBTOTAL(109,Novembre6[Coût Initial (€)])</f>
-        <v>6188</v>
+        <v>8160</v>
       </c>
       <c r="L31" s="1">
         <f>SUBTOTAL(109,Novembre6[Coût Révisé (€)])</f>
-        <v>8092</v>
+        <v>8364</v>
       </c>
       <c r="M31" s="2">
         <f>SUBTOTAL(109,Novembre6[Coût Réel])</f>
-        <v>5372</v>
+        <v>8364</v>
       </c>
       <c r="N31" s="2"/>
     </row>
@@ -20729,29 +20753,6 @@
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>68</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5">
-        <f>SUM(C37:C39)</f>
-        <v>120</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A22:A23"/>
@@ -20764,98 +20765,98 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 D2:D30">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>$F4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$F12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$F13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$F15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B28">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B23:B26 B28 C2:C30 F2:M30">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>$N2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>$N18="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>$F18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="16">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="19">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$N29="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="20">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$F29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="21">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>#REF!="Oui"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30 F2:M30 B21 B23:B26 B28">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20875,19 +20876,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF9263497045A640A8CB558901A6A6C8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="74a64c617853225d9915ce5c2407eb7f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3823e97-3c8f-42af-9aa3-4a85adc1b986" xmlns:ns3="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2245405c225123f82bf2fff4f792a1eb" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
-    <xsd:import namespace="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E515E1E2CF8004C99C95607B9652EE2" ma:contentTypeVersion="3" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="084f4a7ec9dcaa2bb00e9bf849c8b8c0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d516c02-b9f1-42d8-97df-19f84f27208b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7054e435ea20f94c9eab621631aa2029" ns2:_="">
+    <xsd:import namespace="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -20897,13 +20894,6 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -20911,7 +20901,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3823e97-3c8f-42af-9aa3-4a85adc1b986" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8d516c02-b9f1-42d8-97df-19f84f27208b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -20928,55 +20918,6 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2fee1a98-43a5-414c-ba74-85edd82ad231" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{36760f6c-308c-4bc3-aa0b-acf4d151f2cd}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1ee72ef8-afb7-4cab-8045-23d1f296c8e3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -21079,33 +21020,38 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B8A2DB-F0C8-46F4-AC39-BA8B306E6417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1F3B2DE-0C27-4B26-98AE-3D148EBDB561}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
-    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
+    <ds:schemaRef ds:uri="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -21117,18 +21063,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
